--- a/manual_testcase_docs/Tracker.xlsx
+++ b/manual_testcase_docs/Tracker.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\BluePrint\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBCA4AF-AA12-4928-8EA9-9B0924A220F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>User - Creation / Login / Logout</t>
   </si>
@@ -40,9 +34,6 @@
   </si>
   <si>
     <t>Organize (AI Architect Tool)</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Ingestion (AI Architect Tool)</t>
@@ -120,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,7 +178,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -300,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,61 +560,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="69.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -663,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -671,167 +652,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState ref="A2:B26">
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Confusion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Confusion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -841,24 +822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
